--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DFE5B-8092-43D4-8B83-648E34ACF61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8C023-9FFE-451E-9081-F9DD63DF4CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="提前面试计划" sheetId="2" r:id="rId2"/>
+    <sheet name="报考院校信息" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">报考院校信息!$A$1:$M$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提前面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +117,207 @@
   </si>
   <si>
     <t>冲刺阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前面试准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院校</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>招生人数</t>
+  </si>
+  <si>
+    <t>学习方式</t>
+  </si>
+  <si>
+    <t>授课语言</t>
+  </si>
+  <si>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>浙江大学深圳研究生院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末上课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习时长（年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.zjusz.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交通大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.sjtu.edu.cn/sz/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否接受调剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否接受提前面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学岭南学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历年分数线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.lingnan.sysu.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未公布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.scutmba.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中南财经政法大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.zuel.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.whunf.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.hust.edu.cn/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学管理学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBA,EQUIS,AACSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双一流/985/211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.bus.sysu.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://glxy.nwpu.edu.cn/mba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBA</t>
+  </si>
+  <si>
+    <t>http://www.lzumba.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暨南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.jun.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.scnu.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBA,EQUIS,AACSB,CAMEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBA,EQUIS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,16 +340,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,18 +391,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="规划专用色彩" xfId="1" xr:uid="{FCA150A4-8740-42AC-9A0F-AE7C0766FC35}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,17 +713,17 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="50" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50">
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -470,68 +732,68 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -545,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -560,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -575,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
         <v>2</v>
@@ -587,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
         <v>2</v>
@@ -602,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="s">
         <v>2</v>
@@ -617,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="s">
         <v>2</v>
@@ -629,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="AG2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="s">
         <v>2</v>
@@ -644,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="s">
         <v>2</v>
@@ -659,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="s">
         <v>2</v>
@@ -674,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="s">
         <v>2</v>
@@ -683,53 +945,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:50">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="5" spans="1:50">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="15" spans="1:50">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -745,7 +1018,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -754,4 +1027,579 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>370</v>
+      </c>
+      <c r="F2">
+        <v>21.8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>2.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2">
+        <v>185</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>650</v>
+      </c>
+      <c r="F3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>2.5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>175</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>326</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>210</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>270</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>210</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>175</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4">
+        <v>211</v>
+      </c>
+      <c r="E7">
+        <v>180</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7">
+        <v>175</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>16.8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>175</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>2.5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>195</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>180</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>360</v>
+      </c>
+      <c r="F11">
+        <v>12.6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>170</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4">
+        <v>211</v>
+      </c>
+      <c r="E12">
+        <v>220</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>170</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>211</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>175</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M13" xr:uid="{D59077B9-5A38-43FD-A643-EA795CED5384}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{9FB8F295-6BAE-4CD5-BE58-1C2DC83A26DF}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{8A47A5A8-AD9D-4CBC-A30B-3F4A7BAE060B}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{2054960A-C3A5-4EC7-BCDE-C11056F28B28}"/>
+    <hyperlink ref="M6" r:id="rId4" xr:uid="{476B33C1-2A91-41EB-837C-CA1BBA9B34C6}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{DD80FC15-1ACC-4729-AC2B-1A06DE05AAE0}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{7F8ABFCB-0212-4B13-9069-A036460DFEF5}"/>
+    <hyperlink ref="M9" r:id="rId7" xr:uid="{EEEBC2CD-0179-4020-BDB3-EDAD47840219}"/>
+    <hyperlink ref="M5" r:id="rId8" xr:uid="{EB892655-8C63-46B1-B163-72AB303F2C03}"/>
+    <hyperlink ref="M10" r:id="rId9" xr:uid="{8F803D26-6682-4D49-B582-018C0667F3A5}"/>
+    <hyperlink ref="M11" r:id="rId10" xr:uid="{68E9E058-00A2-44A3-953F-D6ACEF500DFE}"/>
+    <hyperlink ref="M12" r:id="rId11" xr:uid="{B8D92357-8C57-427B-ACB2-05F50AF81246}"/>
+    <hyperlink ref="M13" r:id="rId12" xr:uid="{413F2891-5F1F-4A2E-A00A-6043C5621ACC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8C023-9FFE-451E-9081-F9DD63DF4CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F541F-4667-4CBC-A0DB-92746BAD5714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://mba.lingnan.sysu.edu.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华南理工大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.scutmba.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中南财经政法大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://mba.hust.edu.cn/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,18 +273,10 @@
     <t>AMBA</t>
   </si>
   <si>
-    <t>http://www.lzumba.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暨南大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://mba.jun.edu.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华南师范大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +298,46 @@
   </si>
   <si>
     <t>AMBA,EQUIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lingnan.sysu.edu.cn/mba/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.hust.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AACSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没找到深圳授课地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.lzu.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mba.jnu.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hitsz.edu.cn/index.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨工业大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +382,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -383,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -406,23 +433,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -724,74 +766,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1" t="s">
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1" t="s">
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1" t="s">
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
@@ -949,17 +991,17 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:50">
       <c r="B4" t="s">
@@ -993,16 +1035,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,10 +1073,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1052,50 +1097,54 @@
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1103,10 +1152,10 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>370</v>
@@ -1132,11 +1181,11 @@
       <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1144,16 +1193,16 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>650</v>
       </c>
       <c r="F3">
-        <v>40.799999999999997</v>
+        <v>45.8</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1165,7 +1214,7 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>175</v>
@@ -1173,11 +1222,11 @@
       <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1185,10 +1234,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>326</v>
@@ -1214,22 +1263,22 @@
       <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>270</v>
@@ -1255,25 +1304,25 @@
       <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -1296,21 +1345,19 @@
       <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3">
         <v>211</v>
       </c>
       <c r="E7">
@@ -1337,28 +1384,28 @@
       <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <v>16.8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
+        <v>19.8</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1375,17 +1422,23 @@
       <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
       <c r="E9">
         <v>49</v>
       </c>
@@ -1402,7 +1455,7 @@
         <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>195</v>
@@ -1410,19 +1463,19 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1448,22 +1501,25 @@
       <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>360</v>
@@ -1489,21 +1545,21 @@
       <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="4">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3">
         <v>211</v>
       </c>
       <c r="E12">
@@ -1530,21 +1586,21 @@
       <c r="L12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3">
         <v>211</v>
       </c>
       <c r="E13">
@@ -1571,16 +1627,24 @@
       <c r="L13" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1590,16 +1654,17 @@
     <hyperlink ref="M2" r:id="rId1" xr:uid="{9FB8F295-6BAE-4CD5-BE58-1C2DC83A26DF}"/>
     <hyperlink ref="M3" r:id="rId2" xr:uid="{8A47A5A8-AD9D-4CBC-A30B-3F4A7BAE060B}"/>
     <hyperlink ref="M4" r:id="rId3" xr:uid="{2054960A-C3A5-4EC7-BCDE-C11056F28B28}"/>
-    <hyperlink ref="M6" r:id="rId4" xr:uid="{476B33C1-2A91-41EB-837C-CA1BBA9B34C6}"/>
-    <hyperlink ref="M7" r:id="rId5" xr:uid="{DD80FC15-1ACC-4729-AC2B-1A06DE05AAE0}"/>
-    <hyperlink ref="M8" r:id="rId6" xr:uid="{7F8ABFCB-0212-4B13-9069-A036460DFEF5}"/>
-    <hyperlink ref="M9" r:id="rId7" xr:uid="{EEEBC2CD-0179-4020-BDB3-EDAD47840219}"/>
-    <hyperlink ref="M5" r:id="rId8" xr:uid="{EB892655-8C63-46B1-B163-72AB303F2C03}"/>
-    <hyperlink ref="M10" r:id="rId9" xr:uid="{8F803D26-6682-4D49-B582-018C0667F3A5}"/>
-    <hyperlink ref="M11" r:id="rId10" xr:uid="{68E9E058-00A2-44A3-953F-D6ACEF500DFE}"/>
-    <hyperlink ref="M12" r:id="rId11" xr:uid="{B8D92357-8C57-427B-ACB2-05F50AF81246}"/>
-    <hyperlink ref="M13" r:id="rId12" xr:uid="{413F2891-5F1F-4A2E-A00A-6043C5621ACC}"/>
+    <hyperlink ref="M7" r:id="rId4" xr:uid="{DD80FC15-1ACC-4729-AC2B-1A06DE05AAE0}"/>
+    <hyperlink ref="M8" r:id="rId5" xr:uid="{7F8ABFCB-0212-4B13-9069-A036460DFEF5}"/>
+    <hyperlink ref="M9" r:id="rId6" xr:uid="{EEEBC2CD-0179-4020-BDB3-EDAD47840219}"/>
+    <hyperlink ref="M5" r:id="rId7" xr:uid="{EB892655-8C63-46B1-B163-72AB303F2C03}"/>
+    <hyperlink ref="M10" r:id="rId8" xr:uid="{8F803D26-6682-4D49-B582-018C0667F3A5}"/>
+    <hyperlink ref="M11" r:id="rId9" xr:uid="{68E9E058-00A2-44A3-953F-D6ACEF500DFE}"/>
+    <hyperlink ref="M12" r:id="rId10" xr:uid="{B8D92357-8C57-427B-ACB2-05F50AF81246}"/>
+    <hyperlink ref="M13" r:id="rId11" xr:uid="{413F2891-5F1F-4A2E-A00A-6043C5621ACC}"/>
+    <hyperlink ref="M15" r:id="rId12" xr:uid="{518A97F2-1EC1-472D-848E-991981D5840C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F541F-4667-4CBC-A0DB-92746BAD5714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62291D62-11D8-449F-8317-EB44E197B5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="报考院校信息" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">报考院校信息!$A$1:$M$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">报考院校信息!$A$1:$N$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="80">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,10 @@
   </si>
   <si>
     <t>哈尔滨工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/B档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,12 +464,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -766,74 +770,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5" t="s">
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5" t="s">
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5" t="s">
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5" t="s">
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5" t="s">
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
@@ -1073,13 +1077,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1088,19 +1092,20 @@
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1114,37 +1119,40 @@
         <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1157,35 +1165,35 @@
       <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>370</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>21.8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2">
         <v>185</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1198,35 +1206,35 @@
       <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>650</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>45.8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>175</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1239,35 +1247,35 @@
       <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>326</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>210</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1280,35 +1288,35 @@
       <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>270</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>210</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1321,33 +1329,33 @@
       <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6">
         <v>175</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1360,35 +1368,36 @@
       <c r="D7" s="3">
         <v>211</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3"/>
+      <c r="F7">
         <v>180</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7">
         <v>175</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1401,32 +1410,32 @@
       <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>19.8</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>175</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1439,35 +1448,35 @@
       <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>49</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>195</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1477,38 +1486,38 @@
       <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>100</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>41</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>43</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>180</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1521,35 +1530,35 @@
       <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>360</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>12.6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>33</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>41</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>170</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1562,35 +1571,36 @@
       <c r="D12" s="3">
         <v>211</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3"/>
+      <c r="F12">
         <v>220</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12">
         <v>170</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1603,35 +1613,36 @@
       <c r="D13" s="3">
         <v>211</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3"/>
+      <c r="F13">
         <v>100</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>33</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13">
         <v>175</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1639,30 +1650,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M13" xr:uid="{D59077B9-5A38-43FD-A643-EA795CED5384}"/>
+  <autoFilter ref="A1:N15" xr:uid="{D59077B9-5A38-43FD-A643-EA795CED5384}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{9FB8F295-6BAE-4CD5-BE58-1C2DC83A26DF}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{8A47A5A8-AD9D-4CBC-A30B-3F4A7BAE060B}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{2054960A-C3A5-4EC7-BCDE-C11056F28B28}"/>
-    <hyperlink ref="M7" r:id="rId4" xr:uid="{DD80FC15-1ACC-4729-AC2B-1A06DE05AAE0}"/>
-    <hyperlink ref="M8" r:id="rId5" xr:uid="{7F8ABFCB-0212-4B13-9069-A036460DFEF5}"/>
-    <hyperlink ref="M9" r:id="rId6" xr:uid="{EEEBC2CD-0179-4020-BDB3-EDAD47840219}"/>
-    <hyperlink ref="M5" r:id="rId7" xr:uid="{EB892655-8C63-46B1-B163-72AB303F2C03}"/>
-    <hyperlink ref="M10" r:id="rId8" xr:uid="{8F803D26-6682-4D49-B582-018C0667F3A5}"/>
-    <hyperlink ref="M11" r:id="rId9" xr:uid="{68E9E058-00A2-44A3-953F-D6ACEF500DFE}"/>
-    <hyperlink ref="M12" r:id="rId10" xr:uid="{B8D92357-8C57-427B-ACB2-05F50AF81246}"/>
-    <hyperlink ref="M13" r:id="rId11" xr:uid="{413F2891-5F1F-4A2E-A00A-6043C5621ACC}"/>
-    <hyperlink ref="M15" r:id="rId12" xr:uid="{518A97F2-1EC1-472D-848E-991981D5840C}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{9FB8F295-6BAE-4CD5-BE58-1C2DC83A26DF}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{8A47A5A8-AD9D-4CBC-A30B-3F4A7BAE060B}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{2054960A-C3A5-4EC7-BCDE-C11056F28B28}"/>
+    <hyperlink ref="N7" r:id="rId4" xr:uid="{DD80FC15-1ACC-4729-AC2B-1A06DE05AAE0}"/>
+    <hyperlink ref="N8" r:id="rId5" xr:uid="{7F8ABFCB-0212-4B13-9069-A036460DFEF5}"/>
+    <hyperlink ref="N9" r:id="rId6" xr:uid="{EEEBC2CD-0179-4020-BDB3-EDAD47840219}"/>
+    <hyperlink ref="N5" r:id="rId7" xr:uid="{EB892655-8C63-46B1-B163-72AB303F2C03}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{8F803D26-6682-4D49-B582-018C0667F3A5}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{68E9E058-00A2-44A3-953F-D6ACEF500DFE}"/>
+    <hyperlink ref="N12" r:id="rId10" xr:uid="{B8D92357-8C57-427B-ACB2-05F50AF81246}"/>
+    <hyperlink ref="N13" r:id="rId11" xr:uid="{413F2891-5F1F-4A2E-A00A-6043C5621ACC}"/>
+    <hyperlink ref="N15" r:id="rId12" xr:uid="{518A97F2-1EC1-472D-848E-991981D5840C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>

--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62291D62-11D8-449F-8317-EB44E197B5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0430885-EBCE-4C0C-A998-FFA5B3A06C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1039,16 +1039,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,10 +1080,10 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0430885-EBCE-4C0C-A998-FFA5B3A06C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B574D2-1A68-48C7-8DCC-1776358D20CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="提前面试计划" sheetId="2" r:id="rId2"/>
-    <sheet name="报考院校信息" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="提前面试计划" sheetId="2" r:id="rId3"/>
+    <sheet name="报考院校信息" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">报考院校信息!$A$1:$N$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">报考院校信息!$A$1:$N$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -759,7 +760,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1039,16 +1040,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1057,6 +1058,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E83595-0757-4FEE-A15D-161806F83030}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC8B526-491A-4DE7-AE0B-2B6CA2134D3D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1075,15 +1090,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B574D2-1A68-48C7-8DCC-1776358D20CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418BBEEE-0703-48A9-B0EC-289D4DEB417F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未公布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中南财经政法大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,6 +339,14 @@
   </si>
   <si>
     <t>A/B档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBA,AACSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.cnsba.scut.edu.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1061,7 +1065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E83595-0757-4FEE-A15D-161806F83030}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
@@ -1098,7 +1104,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1128,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>26</v>
@@ -1164,7 +1170,7 @@
         <v>29</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1175,10 +1181,10 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>370</v>
@@ -1216,10 +1222,10 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
       </c>
       <c r="F3">
         <v>650</v>
@@ -1257,10 +1263,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
       <c r="F4">
         <v>326</v>
@@ -1287,21 +1293,21 @@
         <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
       </c>
       <c r="F5">
         <v>270</v>
@@ -1328,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1339,13 +1345,13 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>323</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -1368,17 +1374,19 @@
       <c r="M6" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3">
         <v>211</v>
@@ -1409,27 +1417,27 @@
         <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1">
+      <c r="A8" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>19.8</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1447,21 +1455,21 @@
         <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>49</v>
@@ -1488,18 +1496,18 @@
         <v>35</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -1526,24 +1534,24 @@
         <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>360</v>
@@ -1570,18 +1578,18 @@
         <v>35</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>211</v>
@@ -1612,18 +1620,18 @@
         <v>35</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3">
         <v>211</v>
@@ -1654,12 +1662,12 @@
         <v>35</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -1667,10 +1675,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1689,8 +1697,9 @@
     <hyperlink ref="N12" r:id="rId10" xr:uid="{B8D92357-8C57-427B-ACB2-05F50AF81246}"/>
     <hyperlink ref="N13" r:id="rId11" xr:uid="{413F2891-5F1F-4A2E-A00A-6043C5621ACC}"/>
     <hyperlink ref="N15" r:id="rId12" xr:uid="{518A97F2-1EC1-472D-848E-991981D5840C}"/>
+    <hyperlink ref="N6" r:id="rId13" xr:uid="{4FE8F73E-CE51-4AE0-9C42-FA71A504216B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418BBEEE-0703-48A9-B0EC-289D4DEB417F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2E6CB6-8BBE-4CBF-AC5A-9EDF06D63B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1044,16 +1044,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1100,11 +1100,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2E6CB6-8BBE-4CBF-AC5A-9EDF06D63B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21ABBBC-9D7E-4D49-93BE-FC1666212330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,10 @@
   </si>
   <si>
     <t>http://mba.cnsba.scut.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安交通大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,13 +1102,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21:K22"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1681,6 +1685,11 @@
         <v>76</v>
       </c>
     </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N15" xr:uid="{D59077B9-5A38-43FD-A643-EA795CED5384}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21ABBBC-9D7E-4D49-93BE-FC1666212330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F44C5A-405D-4955-8497-33987BF96219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="报考院校信息" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">报考院校信息!$A$1:$N$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">报考院校信息!$A$1:$N$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,8 +30,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>皇甫青松</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{100C26D4-5F5E-48C0-B93F-8073FA312BB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>皇甫青松:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2021年学费由20万调整为26.8万</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +387,33 @@
   </si>
   <si>
     <t>西安交通大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AACSB</t>
+  </si>
+  <si>
+    <t>周末上课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://som.xjtu.edu.cn/mba.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +463,30 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,7 +550,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
@@ -477,6 +564,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,74 +867,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7" t="s">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7" t="s">
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7" t="s">
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7" t="s">
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7" t="s">
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
@@ -1101,14 +1189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1219,7 +1307,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
@@ -1301,7 +1389,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
@@ -1342,7 +1430,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
@@ -1358,7 +1446,7 @@
         <v>323</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>26.8</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -1383,36 +1471,35 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>46</v>
+      <c r="A7" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3">
-        <v>211</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
       <c r="F7">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>18.8</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L7">
         <v>175</v>
@@ -1421,12 +1508,12 @@
         <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1434,23 +1521,27 @@
       <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" t="s">
-        <v>55</v>
+      <c r="D8" s="3">
+        <v>211</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8">
+        <v>180</v>
       </c>
       <c r="G8">
-        <v>19.8</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8">
         <v>175</v>
@@ -1459,33 +1550,30 @@
         <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="F9">
-        <v>49</v>
-      </c>
       <c r="G9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
+        <v>19.8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="I9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
@@ -1494,36 +1582,39 @@
         <v>43</v>
       </c>
       <c r="L9">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
@@ -1532,36 +1623,33 @@
         <v>43</v>
       </c>
       <c r="L10">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
       </c>
       <c r="F11">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>12.6</v>
+        <v>16.8</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -1570,24 +1658,27 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
       <c r="L11">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
         <v>35</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1595,15 +1686,14 @@
       <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3">
-        <v>211</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
       <c r="F12">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>12.6</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -1612,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
         <v>41</v>
@@ -1624,28 +1714,28 @@
         <v>35</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3">
         <v>211</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>33</v>
@@ -1654,61 +1744,100 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L13">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s">
         <v>35</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3">
+        <v>211</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14">
+        <v>175</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N15" xr:uid="{D59077B9-5A38-43FD-A643-EA795CED5384}"/>
+  <autoFilter ref="A1:N16" xr:uid="{D59077B9-5A38-43FD-A643-EA795CED5384}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{9FB8F295-6BAE-4CD5-BE58-1C2DC83A26DF}"/>
     <hyperlink ref="N3" r:id="rId2" xr:uid="{8A47A5A8-AD9D-4CBC-A30B-3F4A7BAE060B}"/>
     <hyperlink ref="N4" r:id="rId3" xr:uid="{2054960A-C3A5-4EC7-BCDE-C11056F28B28}"/>
-    <hyperlink ref="N7" r:id="rId4" xr:uid="{DD80FC15-1ACC-4729-AC2B-1A06DE05AAE0}"/>
-    <hyperlink ref="N8" r:id="rId5" xr:uid="{7F8ABFCB-0212-4B13-9069-A036460DFEF5}"/>
-    <hyperlink ref="N9" r:id="rId6" xr:uid="{EEEBC2CD-0179-4020-BDB3-EDAD47840219}"/>
+    <hyperlink ref="N8" r:id="rId4" xr:uid="{DD80FC15-1ACC-4729-AC2B-1A06DE05AAE0}"/>
+    <hyperlink ref="N9" r:id="rId5" xr:uid="{7F8ABFCB-0212-4B13-9069-A036460DFEF5}"/>
+    <hyperlink ref="N10" r:id="rId6" xr:uid="{EEEBC2CD-0179-4020-BDB3-EDAD47840219}"/>
     <hyperlink ref="N5" r:id="rId7" xr:uid="{EB892655-8C63-46B1-B163-72AB303F2C03}"/>
-    <hyperlink ref="N10" r:id="rId8" xr:uid="{8F803D26-6682-4D49-B582-018C0667F3A5}"/>
-    <hyperlink ref="N11" r:id="rId9" xr:uid="{68E9E058-00A2-44A3-953F-D6ACEF500DFE}"/>
-    <hyperlink ref="N12" r:id="rId10" xr:uid="{B8D92357-8C57-427B-ACB2-05F50AF81246}"/>
-    <hyperlink ref="N13" r:id="rId11" xr:uid="{413F2891-5F1F-4A2E-A00A-6043C5621ACC}"/>
-    <hyperlink ref="N15" r:id="rId12" xr:uid="{518A97F2-1EC1-472D-848E-991981D5840C}"/>
+    <hyperlink ref="N11" r:id="rId8" xr:uid="{8F803D26-6682-4D49-B582-018C0667F3A5}"/>
+    <hyperlink ref="N12" r:id="rId9" xr:uid="{68E9E058-00A2-44A3-953F-D6ACEF500DFE}"/>
+    <hyperlink ref="N13" r:id="rId10" xr:uid="{B8D92357-8C57-427B-ACB2-05F50AF81246}"/>
+    <hyperlink ref="N14" r:id="rId11" xr:uid="{413F2891-5F1F-4A2E-A00A-6043C5621ACC}"/>
+    <hyperlink ref="N16" r:id="rId12" xr:uid="{518A97F2-1EC1-472D-848E-991981D5840C}"/>
     <hyperlink ref="N6" r:id="rId13" xr:uid="{4FE8F73E-CE51-4AE0-9C42-FA71A504216B}"/>
+    <hyperlink ref="N7" r:id="rId14" xr:uid="{B6F3AA06-5B18-45C9-ACB3-9CE9D5F43E2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/src/main/doc/考研MBA/2021年规划.xlsx
+++ b/src/main/doc/考研MBA/2021年规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F44C5A-405D-4955-8497-33987BF96219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2DC00-D0CB-4254-BA3A-D7C30CF5928C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">报考院校信息!$A$1:$N$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +423,18 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟考试日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟考试试卷年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题总结日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,6 +442,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -550,7 +574,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
@@ -568,6 +592,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -853,7 +879,7 @@
   <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
@@ -1136,16 +1162,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1155,14 +1181,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E83595-0757-4FEE-A15D-161806F83030}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
+        <v>44513</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44514</v>
+      </c>
+      <c r="C2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9">
+        <v>44520</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44521</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>44527</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44528</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
+        <v>44534</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44535</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>44541</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44542</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>44548</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44549</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1192,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
